--- a/Study 1 Materials/study-1-scales.xlsx
+++ b/Study 1 Materials/study-1-scales.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Drive\RESEARCH PROJECTS\conspiracy-belief-special-issue\Scales\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Drive\RESEARCH PROJECTS\conspiracy-belief-special-issue\Study 1 Materials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{244D3977-19EF-4034-BB3A-35A816FDE8D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{561E0D17-98A4-4CC8-AD8C-EAAFAABE3724}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scales" sheetId="1" r:id="rId1"/>
@@ -226,9 +226,6 @@
     <t>Saya tidak terlalu terganggu ketika orang lain tidak menganggap penting posisi umat Islam dibandingkan dengan umat yang lain (R)</t>
   </si>
   <si>
-    <t>I am not too disturbed when other people do not consider the position of Muslims more important than others ®</t>
-  </si>
-  <si>
     <t>People of other religions often underestimate the contribution and position of Muslims</t>
   </si>
   <si>
@@ -580,6 +577,9 @@
   </si>
   <si>
     <t>1: Suku Bangsa; 2: Ras; 3: Agama, 4: Suku Bangsa dan Ras; 5: Suku Bangsa dan Agama; 6: Ras dan Agama; 7: Tidak tahu</t>
+  </si>
+  <si>
+    <t>I am not too disturbed when other people do not consider the position of Muslims more important than others (R)</t>
   </si>
 </sst>
 </file>
@@ -1467,8 +1467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1482,7 +1482,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>22</v>
@@ -1497,7 +1497,7 @@
         <v>20</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G1" s="7" t="s">
         <v>24</v>
@@ -1529,7 +1529,7 @@
         <v>21</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -1555,7 +1555,7 @@
         <v>21</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -1581,7 +1581,7 @@
         <v>21</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -1607,7 +1607,7 @@
         <v>21</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -1633,7 +1633,7 @@
         <v>21</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -1659,7 +1659,7 @@
         <v>21</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -1670,7 +1670,7 @@
         <v>67</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>68</v>
+        <v>185</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>0</v>
@@ -1685,7 +1685,7 @@
         <v>21</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -1711,7 +1711,7 @@
         <v>21</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -1722,7 +1722,7 @@
         <v>33</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>0</v>
@@ -1737,7 +1737,7 @@
         <v>21</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -1763,12 +1763,12 @@
         <v>21</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>36</v>
@@ -1789,12 +1789,12 @@
         <v>21</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>37</v>
@@ -1815,12 +1815,12 @@
         <v>21</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>38</v>
@@ -1841,12 +1841,12 @@
         <v>21</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>39</v>
@@ -1867,12 +1867,12 @@
         <v>21</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>40</v>
@@ -1893,12 +1893,12 @@
         <v>21</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>41</v>
@@ -1919,12 +1919,12 @@
         <v>21</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>42</v>
@@ -1945,12 +1945,12 @@
         <v>21</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>43</v>
@@ -1971,12 +1971,12 @@
         <v>21</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>44</v>
@@ -1997,12 +1997,12 @@
         <v>21</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>45</v>
@@ -2023,12 +2023,12 @@
         <v>21</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>46</v>
@@ -2049,18 +2049,18 @@
         <v>21</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B23" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>71</v>
-      </c>
       <c r="C23" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>0</v>
@@ -2069,24 +2069,24 @@
         <v>1</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>21</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>0</v>
@@ -2095,24 +2095,24 @@
         <v>1</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G24" s="5" t="s">
         <v>21</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>0</v>
@@ -2121,24 +2121,24 @@
         <v>1</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>21</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>0</v>
@@ -2147,24 +2147,24 @@
         <v>1</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G26" s="5" t="s">
         <v>21</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>0</v>
@@ -2173,24 +2173,24 @@
         <v>1</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G27" s="5" t="s">
         <v>21</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>0</v>
@@ -2199,24 +2199,24 @@
         <v>1</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G28" s="5" t="s">
         <v>21</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>0</v>
@@ -2225,50 +2225,50 @@
         <v>1</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G29" s="5" t="s">
         <v>21</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B30" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F30" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>90</v>
       </c>
       <c r="G30" s="5" t="s">
         <v>21</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>0</v>
@@ -2277,24 +2277,24 @@
         <v>1</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G31" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="H31" s="8" t="s">
         <v>159</v>
-      </c>
-      <c r="H31" s="8" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>0</v>
@@ -2303,24 +2303,24 @@
         <v>1</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G32" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="H32" s="8" t="s">
         <v>159</v>
-      </c>
-      <c r="H32" s="8" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>0</v>
@@ -2329,24 +2329,24 @@
         <v>1</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G33" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="H33" s="8" t="s">
         <v>159</v>
-      </c>
-      <c r="H33" s="8" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>0</v>
@@ -2355,25 +2355,25 @@
         <v>1</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G34" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="H34" s="8" t="s">
         <v>159</v>
-      </c>
-      <c r="H34" s="8" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C35" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="C35" s="5" t="s">
-        <v>140</v>
-      </c>
       <c r="D35" s="4" t="s">
         <v>0</v>
       </c>
@@ -2381,24 +2381,24 @@
         <v>1</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G35" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="H35" s="8" t="s">
         <v>159</v>
-      </c>
-      <c r="H35" s="8" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>0</v>
@@ -2407,24 +2407,24 @@
         <v>1</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G36" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="H36" s="8" t="s">
         <v>159</v>
-      </c>
-      <c r="H36" s="8" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>0</v>
@@ -2433,24 +2433,24 @@
         <v>1</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G37" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="H37" s="8" t="s">
         <v>159</v>
-      </c>
-      <c r="H37" s="8" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>0</v>
@@ -2459,24 +2459,24 @@
         <v>1</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G38" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="H38" s="8" t="s">
         <v>159</v>
-      </c>
-      <c r="H38" s="8" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>0</v>
@@ -2485,24 +2485,24 @@
         <v>1</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G39" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="H39" s="8" t="s">
         <v>159</v>
-      </c>
-      <c r="H39" s="8" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>0</v>
@@ -2511,24 +2511,24 @@
         <v>1</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G40" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="H40" s="8" t="s">
         <v>159</v>
-      </c>
-      <c r="H40" s="8" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>0</v>
@@ -2537,24 +2537,24 @@
         <v>1</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G41" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="H41" s="8" t="s">
         <v>159</v>
-      </c>
-      <c r="H41" s="8" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>0</v>
@@ -2563,24 +2563,24 @@
         <v>1</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G42" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="H42" s="8" t="s">
         <v>159</v>
-      </c>
-      <c r="H42" s="8" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>0</v>
@@ -2589,24 +2589,24 @@
         <v>1</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G43" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="H43" s="8" t="s">
         <v>159</v>
-      </c>
-      <c r="H43" s="8" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>0</v>
@@ -2615,24 +2615,24 @@
         <v>1</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G44" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="H44" s="8" t="s">
         <v>159</v>
-      </c>
-      <c r="H44" s="8" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>0</v>
@@ -2641,24 +2641,24 @@
         <v>1</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G45" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="H45" s="8" t="s">
         <v>159</v>
-      </c>
-      <c r="H45" s="8" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>0</v>
@@ -2667,13 +2667,13 @@
         <v>1</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G46" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="H46" s="8" t="s">
         <v>159</v>
-      </c>
-      <c r="H46" s="8" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -2684,7 +2684,7 @@
         <v>13</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>0</v>
@@ -2699,7 +2699,7 @@
         <v>15</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
@@ -2710,7 +2710,7 @@
         <v>17</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>18</v>
@@ -2722,24 +2722,24 @@
         <v>14</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B49" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B49" s="4" t="s">
-        <v>124</v>
-      </c>
       <c r="C49" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>1</v>
@@ -2752,16 +2752,16 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E50" s="4" t="s">
         <v>1</v>
@@ -2770,24 +2770,24 @@
         <v>14</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>1</v>
@@ -2796,24 +2796,24 @@
         <v>14</v>
       </c>
       <c r="G51" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="H51" s="5" t="s">
         <v>166</v>
-      </c>
-      <c r="H51" s="5" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E52" s="4" t="s">
         <v>1</v>
@@ -2822,10 +2822,10 @@
         <v>14</v>
       </c>
       <c r="G52" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="H52" s="5" t="s">
         <v>168</v>
-      </c>
-      <c r="H52" s="5" t="s">
-        <v>169</v>
       </c>
     </row>
   </sheetData>
